--- a/teaching/traditional_assets/database/data/new_zealand/new_zealand_heathcare_information_and_technology.xlsx
+++ b/teaching/traditional_assets/database/data/new_zealand/new_zealand_heathcare_information_and_technology.xlsx
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.9886363636363638</v>
+        <v>-0.6087704213241617</v>
       </c>
       <c r="H2">
-        <v>-2.04419191919192</v>
+        <v>-1.667239896818573</v>
       </c>
       <c r="I2">
-        <v>-2.239570367084599</v>
+        <v>-1.928995160179504</v>
       </c>
       <c r="J2">
-        <v>-2.239570367084599</v>
+        <v>-1.928995160179504</v>
       </c>
       <c r="K2">
-        <v>-17.43</v>
+        <v>-21.87</v>
       </c>
       <c r="L2">
-        <v>-2.200757575757576</v>
+        <v>-1.880481513327601</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,73 +630,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>5.065</v>
+        <v>9.719999999999999</v>
       </c>
       <c r="V2">
-        <v>0.01782321064114294</v>
+        <v>0.03321941216678059</v>
       </c>
       <c r="W2">
-        <v>-0.7734067333374743</v>
+        <v>-6.941116970997978</v>
       </c>
       <c r="X2">
-        <v>0.08341597969573901</v>
+        <v>0.05541414188952332</v>
       </c>
       <c r="Y2">
-        <v>-0.8568227130332133</v>
+        <v>-6.996531112887501</v>
       </c>
       <c r="Z2">
-        <v>0.6153374473284819</v>
+        <v>0.5530702909951609</v>
       </c>
       <c r="AA2">
-        <v>-7.651788062988627</v>
+        <v>-39.03829342822838</v>
       </c>
       <c r="AB2">
-        <v>0.08314592116175262</v>
+        <v>0.05512175077236747</v>
       </c>
       <c r="AC2">
-        <v>-7.734933984150381</v>
+        <v>-39.09341517900075</v>
       </c>
       <c r="AD2">
-        <v>2.28</v>
+        <v>3.91</v>
       </c>
       <c r="AE2">
-        <v>0.04698653655010391</v>
+        <v>0.03106856443814443</v>
       </c>
       <c r="AF2">
-        <v>2.326986536550104</v>
+        <v>3.941068564438145</v>
       </c>
       <c r="AG2">
-        <v>-2.738013463449897</v>
+        <v>-5.778931435561854</v>
       </c>
       <c r="AH2">
-        <v>0.008121918996391546</v>
+        <v>0.01329012734565551</v>
       </c>
       <c r="AI2">
-        <v>0.05565756860707001</v>
+        <v>0.0653782133975494</v>
       </c>
       <c r="AJ2">
-        <v>-0.00972851811182877</v>
+        <v>-0.02014821109371727</v>
       </c>
       <c r="AK2">
-        <v>-0.07451596088318645</v>
+        <v>-0.1142960700721114</v>
       </c>
       <c r="AL2">
-        <v>0.032</v>
+        <v>1.53</v>
       </c>
       <c r="AM2">
-        <v>-0.387</v>
+        <v>0.99</v>
       </c>
       <c r="AN2">
-        <v>-0.1311249137336093</v>
+        <v>-0.1865636033972708</v>
       </c>
       <c r="AO2">
-        <v>-555.625</v>
+        <v>-14.6797385620915</v>
       </c>
       <c r="AP2">
-        <v>0.1574656926299687</v>
+        <v>0.27573868859442</v>
       </c>
       <c r="AQ2">
-        <v>45.94315245478036</v>
+        <v>-22.68686868686869</v>
       </c>
     </row>
     <row r="3">
@@ -716,22 +716,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>-0.5829145728643217</v>
+        <v>-0.3881188118811881</v>
       </c>
       <c r="H3">
-        <v>-1.381909547738694</v>
+        <v>-1.336633663366337</v>
       </c>
       <c r="I3">
-        <v>-1.61641541038526</v>
+        <v>-1.623762376237624</v>
       </c>
       <c r="J3">
-        <v>-1.61641541038526</v>
+        <v>-1.623762376237624</v>
       </c>
       <c r="K3">
-        <v>-9.16</v>
+        <v>-14</v>
       </c>
       <c r="L3">
-        <v>-1.534338358458962</v>
+        <v>-1.386138613861386</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,73 +755,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>4.53</v>
+        <v>6.56</v>
       </c>
       <c r="V3">
-        <v>0.01613822586391165</v>
+        <v>0.02360561353004678</v>
       </c>
       <c r="W3">
-        <v>-0.6735294117647059</v>
+        <v>-0.3598971722365039</v>
       </c>
       <c r="X3">
-        <v>0.083292582354665</v>
+        <v>0.05561147984988937</v>
       </c>
       <c r="Y3">
-        <v>-0.7568219941193709</v>
+        <v>-0.4155086520863932</v>
       </c>
       <c r="Z3">
-        <v>0.4848140328081858</v>
+        <v>0.4821002386634845</v>
       </c>
       <c r="AA3">
-        <v>-0.7836608738021764</v>
+        <v>-0.782816229116945</v>
       </c>
       <c r="AB3">
-        <v>0.08284192758129361</v>
+        <v>0.05509762751600105</v>
       </c>
       <c r="AC3">
-        <v>-0.86650280138347</v>
+        <v>-0.837913856632946</v>
       </c>
       <c r="AD3">
-        <v>2.28</v>
+        <v>3.91</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.28</v>
+        <v>3.91</v>
       </c>
       <c r="AG3">
-        <v>-2.25</v>
+        <v>-2.649999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.008057106509293943</v>
+        <v>0.01387459635924914</v>
       </c>
       <c r="AI3">
-        <v>0.05536668285575522</v>
+        <v>0.06751856328786048</v>
       </c>
       <c r="AJ3">
-        <v>-0.008080445322319987</v>
+        <v>-0.009627611262488645</v>
       </c>
       <c r="AK3">
-        <v>-0.06139154160982266</v>
+        <v>-0.05160662122687438</v>
       </c>
       <c r="AL3">
-        <v>0.029</v>
+        <v>0.09</v>
       </c>
       <c r="AM3">
-        <v>-0.34</v>
+        <v>-0.4400000000000001</v>
       </c>
       <c r="AN3">
-        <v>-0.24</v>
+        <v>-0.2589403973509934</v>
       </c>
       <c r="AO3">
-        <v>-332.7586206896552</v>
+        <v>-182.2222222222222</v>
       </c>
       <c r="AP3">
-        <v>0.2368421052631579</v>
+        <v>0.1754966887417218</v>
       </c>
       <c r="AQ3">
-        <v>28.38235294117647</v>
+        <v>37.27272727272727</v>
       </c>
     </row>
     <row r="4">
@@ -841,22 +841,22 @@
         </is>
       </c>
       <c r="G4">
-        <v>-2.230769230769231</v>
+        <v>-2.065359477124183</v>
       </c>
       <c r="H4">
-        <v>-4.071794871794872</v>
+        <v>-3.849673202614379</v>
       </c>
       <c r="I4">
-        <v>-4.14738323451796</v>
+        <v>-3.943930531299103</v>
       </c>
       <c r="J4">
-        <v>-4.14738323451796</v>
+        <v>-3.943930531299103</v>
       </c>
       <c r="K4">
-        <v>-8.27</v>
+        <v>-7.87</v>
       </c>
       <c r="L4">
-        <v>-4.241025641025641</v>
+        <v>-5.143790849673203</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -880,73 +880,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.535</v>
+        <v>3.16</v>
       </c>
       <c r="V4">
-        <v>0.1537356321839081</v>
+        <v>0.2149659863945579</v>
       </c>
       <c r="W4">
-        <v>-0.8732840549102427</v>
+        <v>-13.52233676975945</v>
       </c>
       <c r="X4">
-        <v>0.08353937703681302</v>
+        <v>0.05521680392915726</v>
       </c>
       <c r="Y4">
-        <v>-0.9568234319470558</v>
+        <v>-13.57755357368861</v>
       </c>
       <c r="Z4">
-        <v>3.500982289586434</v>
+        <v>19.59815722258165</v>
       </c>
       <c r="AA4">
-        <v>-14.51991525217508</v>
+        <v>-77.29377062733981</v>
       </c>
       <c r="AB4">
-        <v>0.08344991474221165</v>
+        <v>0.05514587402873389</v>
       </c>
       <c r="AC4">
-        <v>-14.60336516691729</v>
+        <v>-77.34891650136855</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.04698653655010391</v>
+        <v>0.03106856443814443</v>
       </c>
       <c r="AF4">
-        <v>0.04698653655010391</v>
+        <v>0.03106856443814443</v>
       </c>
       <c r="AG4">
-        <v>-0.4880134634498961</v>
+        <v>-3.128931435561856</v>
       </c>
       <c r="AH4">
-        <v>0.01332200621215397</v>
+        <v>0.002109050290699629</v>
       </c>
       <c r="AI4">
-        <v>0.07470197503402531</v>
+        <v>0.01310319106925806</v>
       </c>
       <c r="AJ4">
-        <v>-0.1631068380449993</v>
+        <v>-0.270409895001239</v>
       </c>
       <c r="AK4">
-        <v>-5.192376284551544</v>
+        <v>3.96603721758598</v>
       </c>
       <c r="AL4">
-        <v>0.003</v>
+        <v>1.44</v>
       </c>
       <c r="AM4">
-        <v>-0.047</v>
+        <v>1.43</v>
       </c>
       <c r="AN4">
         <v>-0</v>
       </c>
       <c r="AO4">
-        <v>-2710</v>
+        <v>-4.208333333333333</v>
       </c>
       <c r="AP4">
-        <v>0.06186783258746147</v>
+        <v>0.5341296407582546</v>
       </c>
       <c r="AQ4">
-        <v>172.9787234042553</v>
+        <v>-4.237762237762237</v>
       </c>
     </row>
   </sheetData>
